--- a/Engine/Tables/TutorialInfoTable.xlsx
+++ b/Engine/Tables/TutorialInfoTable.xlsx
@@ -14,6 +14,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Replace</t>
   </si>
   <si>
@@ -29,13 +32,10 @@
     <t>Str_01</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>샘플 플레이 튜토리얼 정보</t>
   </si>
   <si>
     <t>Sample</t>
-  </si>
-  <si>
-    <t>샘플 플레이 튜토리얼 정보</t>
   </si>
   <si>
     <t>샘플 도움말 튜토리얼 정보</t>
@@ -295,10 +295,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="20.86"/>
+    <col customWidth="1" min="1" max="1" width="20.86"/>
+    <col customWidth="1" min="2" max="4" width="14.43"/>
+    <col customWidth="1" min="5" max="5" width="16.14"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -322,20 +322,20 @@
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>-1.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -1354,10 +1354,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="20.86"/>
+    <col customWidth="1" min="1" max="1" width="20.86"/>
+    <col customWidth="1" min="2" max="4" width="14.43"/>
+    <col customWidth="1" min="5" max="5" width="16.14"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -1381,23 +1381,23 @@
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1.0E7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>-1.0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
